--- a/Flooring Junction/35187/New Vehicle Registration Template.xlsx
+++ b/Flooring Junction/35187/New Vehicle Registration Template.xlsx
@@ -2,25 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Flooring Junction\35187\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A2611E-1501-4337-BC16-4E6E20A0EA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0B0F3-763C-43E5-B794-7CD7710E4E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="2535" windowWidth="28890" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28890" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Structure" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>resource</t>
   </si>
@@ -43,16 +38,13 @@
     <t>Tier 3</t>
   </si>
   <si>
+    <t>Vehicle Inspection</t>
+  </si>
+  <si>
     <t>checklist</t>
   </si>
   <si>
-    <t>Vehicle Inspection</t>
-  </si>
-  <si>
-    <t>1st Quarter</t>
-  </si>
-  <si>
-    <t>2nd Quarter</t>
+    <t/>
   </si>
   <si>
     <t>3rd Quarter</t>
@@ -101,7 +93,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -247,6 +239,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -257,31 +250,27 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -303,7 +292,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -361,7 +350,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -374,12 +363,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -391,29 +381,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="13" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,51 +458,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>